--- a/data/evaluation/evaluation_Center_Winter_Potatoes.xlsx
+++ b/data/evaluation/evaluation_Center_Winter_Potatoes.xlsx
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5343.385145382881</v>
+        <v>5392.469690338452</v>
       </c>
       <c r="C4" t="n">
-        <v>112268238.4390535</v>
+        <v>110896928.7955832</v>
       </c>
       <c r="D4" t="n">
-        <v>10595.670740404</v>
+        <v>10530.76107390075</v>
       </c>
       <c r="E4" t="n">
-        <v>0.08835383893310134</v>
+        <v>0.09948921603962224</v>
       </c>
     </row>
     <row r="5">
